--- a/xlsx_files/Yellow classroom.xlsx
+++ b/xlsx_files/Yellow classroom.xlsx
@@ -551,7 +551,7 @@
       </c>
       <c r="C6" s="5" t="inlineStr">
         <is>
-          <t>CM FRESHMEN: RUSSIAN LANGUAGE (ELEMENTARY LEVEL)
+          <t>CM FRESHMEN: RUSSIAN LANGUAGE (INTERMEDIATE LEVEL)
 09:00-10:30</t>
         </is>
       </c>
@@ -563,7 +563,7 @@
       </c>
       <c r="E6" s="5" t="inlineStr">
         <is>
-          <t>CM FRESHMEN: MEDIA LITERACY
+          <t>CM SOPHOMORE: ECOLOGY
 09:00-10:30</t>
         </is>
       </c>
@@ -662,7 +662,7 @@
       </c>
       <c r="C14" s="5" t="inlineStr">
         <is>
-          <t>CM FRESHMEN: RUSSIAN LANGUAGE (INTERMEDIATE LEVEL)
+          <t>CM FRESHMEN: SOCIOLOGY
 11:00-12:30</t>
         </is>
       </c>
@@ -674,7 +674,7 @@
       </c>
       <c r="E14" s="5" t="inlineStr">
         <is>
-          <t>CM SOPHOMORE: ECOLOGY
+          <t>CM SOPHOMORE: MEDIA PRODUCTION RADIO
 11:00-12:30</t>
         </is>
       </c>
@@ -801,7 +801,7 @@
       </c>
       <c r="C26" s="5" t="inlineStr">
         <is>
-          <t>CM FRESHMEN: SOCIOLOGY
+          <t>CM FRESHMEN: MEDIA LITERACY
 14:00-15:30</t>
         </is>
       </c>
@@ -813,7 +813,7 @@
       </c>
       <c r="E26" s="5" t="inlineStr">
         <is>
-          <t>CM SOPHOMORE: MEDIA PRODUCTION RADIO
+          <t>CM SOPHOMORE: HISTORY 2: MAKING CENTRAL ASIA
 14:00-15:30</t>
         </is>
       </c>
@@ -912,7 +912,7 @@
       </c>
       <c r="C34" s="5" t="inlineStr">
         <is>
-          <t>CM FRESHMEN: MEDIA LITERACY
+          <t>CM SOPHOMORE: ECOLOGY
 16:00-17:30</t>
         </is>
       </c>
@@ -924,13 +924,13 @@
       </c>
       <c r="E34" s="5" t="inlineStr">
         <is>
-          <t>CM SOPHOMORE: HISTORY 2: MAKING CENTRAL ASIA
+          <t>CM SOPHOMORE: VISUAL DESIGN
 16:00-17:30</t>
         </is>
       </c>
       <c r="F34" s="5" t="inlineStr">
         <is>
-          <t>GROUP 1 PREPARATORY: PRECALCULUS
+          <t>GROUP 2 PREPARATORY: ACADEMIC WRITING: RESEARCH, FICTION AND NONFICTION
 16:00-17:30</t>
         </is>
       </c>
